--- a/LeetCode 热题 Hot 100/0139. 单词拆分(medium).xlsx
+++ b/LeetCode 热题 Hot 100/0139. 单词拆分(medium).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github库\LeetCode 热题 Hot 100\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937CF320-9691-4273-910C-18DE2A122398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2E88A1-3799-466B-83D1-D426D77EBB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8960" yWindow="1520" windowWidth="16800" windowHeight="9670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E8:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="M10" activeCellId="3" sqref="F10 I10 J10 M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -504,7 +504,7 @@
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -513,10 +513,10 @@
       <c r="H10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -525,7 +525,7 @@
       <c r="L10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="N10" s="1" t="s">
